--- a/Database.xlsx
+++ b/Database.xlsx
@@ -208,7 +208,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +219,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -255,49 +261,49 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="165" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -649,7 +655,7 @@
     <col min="18" max="18" style="23" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="69" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -705,7 +711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -761,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -817,7 +823,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -873,7 +879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -929,7 +935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -985,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1041,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1097,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -208,19 +208,13 @@
     <numFmt numFmtId="165" formatCode="#,##0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -256,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -277,9 +271,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="166" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -635,27 +626,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="16.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="16.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="7.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="3.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="20" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="20" width="4.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="21" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="21" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="22" width="7.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="22" width="11.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="22" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="22" width="6.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="22" width="4.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="23" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="16.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="16.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="19.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="7.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="8.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="16" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="9.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="16" width="20.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="19" width="4.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="20" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="20" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="21" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="21" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="21" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="21" width="6.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="21" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="22" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="39.75" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="47.25" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -701,1257 +692,1257 @@
       <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
         <v>4</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>3123</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="9">
         <v>158</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10">
-        <v>1</v>
-      </c>
-      <c r="J2" s="13">
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
         <v>1.65</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <v>0.975</v>
       </c>
-      <c r="L2" s="14">
-        <v>1</v>
-      </c>
-      <c r="M2" s="15">
+      <c r="L2" s="13">
+        <v>1</v>
+      </c>
+      <c r="M2" s="14">
         <v>0.13</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>0.02</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <v>0.98</v>
       </c>
-      <c r="P2" s="15">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="15">
+      <c r="P2" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="14">
         <v>0.55</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="15">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="12">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="9">
         <v>1.5</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>2973</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>156</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="9">
         <v>3</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>1.59</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <v>0.963</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="13">
         <v>0.97</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>0.13</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>0.09</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>0.96</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <v>0.9639864802320871</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <v>0.54</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <v>4.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
-      <c r="A4" s="10">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="12">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
         <v>2399</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>162</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <v>3</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>1.23</v>
       </c>
-      <c r="K4" s="14">
-        <v>1</v>
-      </c>
-      <c r="L4" s="14">
-        <v>1</v>
-      </c>
-      <c r="M4" s="15">
+      <c r="K4" s="13">
+        <v>1</v>
+      </c>
+      <c r="L4" s="13">
+        <v>1</v>
+      </c>
+      <c r="M4" s="14">
         <v>0.1</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>0.04</v>
       </c>
-      <c r="O4" s="15">
-        <v>1</v>
-      </c>
-      <c r="P4" s="15">
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
+      <c r="P4" s="14">
         <v>0.75</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>0.47</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="15">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
-      <c r="A5" s="10">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9">
         <v>1.5</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>1632</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="9">
         <v>144</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="10">
-        <v>2</v>
-      </c>
-      <c r="J5" s="13">
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+      <c r="J5" s="12">
         <v>0.94</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>0.889</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="13">
         <v>0.92</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>0.07</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>0.09</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>0.89</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>0.57</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>0.39</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="15">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
-      <c r="A6" s="10">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="12">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
         <v>1016</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>159</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10">
-        <v>2</v>
-      </c>
-      <c r="J6" s="13">
+      <c r="I6" s="9">
+        <v>2</v>
+      </c>
+      <c r="J6" s="12">
         <v>0.53</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>0.981</v>
       </c>
-      <c r="L6" s="14">
-        <v>1</v>
-      </c>
-      <c r="M6" s="15">
+      <c r="L6" s="13">
+        <v>1</v>
+      </c>
+      <c r="M6" s="14">
         <v>0.04</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>0.3</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <v>0.98</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>0.32</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>0.35</v>
       </c>
-      <c r="R6" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
-      <c r="A7" s="10">
+      <c r="R6" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>2</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9">
         <v>1193</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>148</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="12">
         <v>0.67</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>0.914</v>
       </c>
-      <c r="L7" s="14">
-        <v>1</v>
-      </c>
-      <c r="M7" s="15">
+      <c r="L7" s="13">
+        <v>1</v>
+      </c>
+      <c r="M7" s="14">
         <v>0.05</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <v>0.02</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <v>0.91</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <v>0.4</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <v>0.32</v>
       </c>
-      <c r="R7" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
-      <c r="A8" s="10">
+      <c r="R7" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="12">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>2</v>
-      </c>
-      <c r="F8" s="10">
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9">
         <v>1191</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>143</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="10">
-        <v>1</v>
-      </c>
-      <c r="J8" s="13">
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
         <v>0.69</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>0.883</v>
       </c>
-      <c r="L8" s="14">
-        <v>1</v>
-      </c>
-      <c r="M8" s="15">
+      <c r="L8" s="13">
+        <v>1</v>
+      </c>
+      <c r="M8" s="14">
         <v>0.05</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="14">
         <v>0.02</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="14">
         <v>0.88</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>0.42</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <v>0.32</v>
       </c>
-      <c r="R8" s="16">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
-      <c r="A9" s="10">
+      <c r="R8" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
         <v>1.5</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>850</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>160</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="13">
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
         <v>0.44</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>0.988</v>
       </c>
-      <c r="L9" s="14">
-        <v>1</v>
-      </c>
-      <c r="M9" s="15">
+      <c r="L9" s="13">
+        <v>1</v>
+      </c>
+      <c r="M9" s="14">
         <v>0.04</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="14">
         <v>0.14</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="14">
         <v>0.99</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>0.26</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="14">
         <v>0.31</v>
       </c>
-      <c r="R9" s="16">
+      <c r="R9" s="15">
         <v>1.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
-      <c r="A10" s="10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="10">
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>2</v>
+      </c>
+      <c r="F10" s="9">
         <v>987</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>144</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="10">
-        <v>1</v>
-      </c>
-      <c r="J10" s="13">
+      <c r="I10" s="9">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
         <v>0.57</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <v>0.889</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="13">
         <v>0.79</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>0.04</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="14">
         <v>0.02</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="14">
         <v>0.89</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="14">
         <v>0.34</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="14">
         <v>0.3</v>
       </c>
-      <c r="R10" s="16">
+      <c r="R10" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="12">
-        <v>0</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
         <v>1.5</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>834</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>140</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="10">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13">
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
         <v>0.5</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <v>0.864</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="13">
         <v>0.89</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <v>0.04</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="14">
         <v>0.09</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="14">
         <v>0.86</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <v>0.29</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="14">
         <v>0.28783800650825064</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="15">
         <v>1.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="16">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12">
-        <v>0</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="10">
-        <v>1</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16">
+      <c r="D13" s="11">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="12">
-        <v>0</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="D14" s="11">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
         <v>432</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>155</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="10">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13">
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="12">
         <v>0.23</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>0.957</v>
       </c>
-      <c r="L14" s="14">
+      <c r="L14" s="13">
         <v>0.23</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <v>0.02</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="14">
         <v>0.3</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="14">
         <v>0.96</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="14">
         <v>0.13</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="14">
         <v>0.28</v>
       </c>
-      <c r="R14" s="16">
+      <c r="R14" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="12">
-        <v>0</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="D15" s="11">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
         <v>733</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>161</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="10">
-        <v>1</v>
-      </c>
-      <c r="J15" s="13">
+      <c r="I15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="12">
         <v>0.38</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>0.994</v>
       </c>
-      <c r="L15" s="14">
-        <v>1</v>
-      </c>
-      <c r="M15" s="15">
+      <c r="L15" s="13">
+        <v>1</v>
+      </c>
+      <c r="M15" s="14">
         <v>0.03</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="14">
         <v>0.04</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="14">
         <v>0.99</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="14">
         <v>0.22</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="Q15" s="14">
         <v>0.28</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="12">
-        <v>0</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
+      <c r="D16" s="11">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="9">
         <v>659</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>157</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="10">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13">
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+      <c r="J16" s="12">
         <v>0.35</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>0.969</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>0.99</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <v>0.03</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="14">
         <v>0.1</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="14">
         <v>0.97</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="14">
         <v>0.2</v>
       </c>
-      <c r="Q16" s="15">
+      <c r="Q16" s="14">
         <v>0.28</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10">
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1</v>
+      </c>
+      <c r="F17" s="9">
         <v>446</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>149</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="10">
-        <v>1</v>
-      </c>
-      <c r="J17" s="13">
+      <c r="I17" s="9">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12">
         <v>0.25</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>0.92</v>
       </c>
-      <c r="L17" s="14">
-        <v>1</v>
-      </c>
-      <c r="M17" s="15">
+      <c r="L17" s="13">
+        <v>1</v>
+      </c>
+      <c r="M17" s="14">
         <v>0.02</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="14">
         <v>0.3</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="14">
         <v>0.92</v>
       </c>
-      <c r="P17" s="15">
+      <c r="P17" s="14">
         <v>0.14</v>
       </c>
-      <c r="Q17" s="15">
+      <c r="Q17" s="14">
         <v>0.28</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
-      <c r="A18" s="10">
+      <c r="A18" s="9">
         <v>15</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1</v>
+      </c>
+      <c r="F18" s="9">
         <v>746</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>155</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="10">
-        <v>1</v>
-      </c>
-      <c r="J18" s="13">
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="12">
         <v>0.4</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>0.957</v>
       </c>
-      <c r="L18" s="14">
-        <v>1</v>
-      </c>
-      <c r="M18" s="15">
+      <c r="L18" s="13">
+        <v>1</v>
+      </c>
+      <c r="M18" s="14">
         <v>0.03</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="14">
         <v>0.04</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="14">
         <v>0.96</v>
       </c>
-      <c r="P18" s="15">
+      <c r="P18" s="14">
         <v>0.24</v>
       </c>
-      <c r="Q18" s="15">
+      <c r="Q18" s="14">
         <v>0.28</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
-      <c r="A19" s="10">
+      <c r="A19" s="9">
         <v>16</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
         <v>727</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>146</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="10">
-        <v>2</v>
-      </c>
-      <c r="J19" s="13">
+      <c r="I19" s="9">
+        <v>2</v>
+      </c>
+      <c r="J19" s="12">
         <v>0.41</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <v>0.901</v>
       </c>
-      <c r="L19" s="14">
-        <v>0</v>
-      </c>
-      <c r="M19" s="15">
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="14">
         <v>0.03</v>
       </c>
-      <c r="N19" s="15">
-        <v>0</v>
-      </c>
-      <c r="O19" s="15">
+      <c r="N19" s="14">
+        <v>0</v>
+      </c>
+      <c r="O19" s="14">
         <v>0.9</v>
       </c>
-      <c r="P19" s="15">
+      <c r="P19" s="14">
         <v>0.24</v>
       </c>
-      <c r="Q19" s="15">
+      <c r="Q19" s="14">
         <v>0.26</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R19" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
-      <c r="A20" s="10">
+      <c r="A20" s="9">
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="12">
-        <v>0</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
+      <c r="D20" s="11">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9">
         <v>623</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>152</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I20" s="10">
-        <v>1</v>
-      </c>
-      <c r="J20" s="13">
+      <c r="I20" s="9">
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
         <v>0.34</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <v>0.938</v>
       </c>
-      <c r="L20" s="14">
-        <v>1</v>
-      </c>
-      <c r="M20" s="15">
+      <c r="L20" s="13">
+        <v>1</v>
+      </c>
+      <c r="M20" s="14">
         <v>0.03</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="14">
         <v>0.04</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="14">
         <v>0.94</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="14">
         <v>0.2</v>
       </c>
-      <c r="Q20" s="15">
+      <c r="Q20" s="14">
         <v>0.26</v>
       </c>
-      <c r="R20" s="16">
+      <c r="R20" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="10">
+      <c r="A21" s="9">
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="12">
-        <v>0</v>
-      </c>
-      <c r="E21" s="10">
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
         <v>1.5</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="9">
         <v>663</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>133</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="13">
+      <c r="I21" s="9">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
         <v>0.42</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>0.821</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>0.82</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <v>0.03</v>
       </c>
-      <c r="N21" s="15">
+      <c r="N21" s="14">
         <v>0.09</v>
       </c>
-      <c r="O21" s="15">
+      <c r="O21" s="14">
         <v>0.82</v>
       </c>
-      <c r="P21" s="15">
+      <c r="P21" s="14">
         <v>0.25</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="Q21" s="14">
         <v>0.26</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="15">
         <v>1.5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="10">
+      <c r="A22" s="9">
         <v>19</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="12">
-        <v>0</v>
-      </c>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="10">
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
         <v>241</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>153</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="I22" s="10">
-        <v>1</v>
-      </c>
-      <c r="J22" s="13">
+      <c r="I22" s="9">
+        <v>1</v>
+      </c>
+      <c r="J22" s="12">
         <v>0.13</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <v>0.944</v>
       </c>
-      <c r="L22" s="14">
-        <v>1</v>
-      </c>
-      <c r="M22" s="15">
+      <c r="L22" s="13">
+        <v>1</v>
+      </c>
+      <c r="M22" s="14">
         <v>0.01</v>
       </c>
-      <c r="N22" s="15">
+      <c r="N22" s="14">
         <v>0.3</v>
       </c>
-      <c r="O22" s="15">
+      <c r="O22" s="14">
         <v>0.94</v>
       </c>
-      <c r="P22" s="15">
+      <c r="P22" s="14">
         <v>0.07</v>
       </c>
-      <c r="Q22" s="15">
+      <c r="Q22" s="14">
         <v>0.26</v>
       </c>
-      <c r="R22" s="16">
+      <c r="R22" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="10">
+      <c r="A23" s="9">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="12">
-        <v>0</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
         <v>522</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>157</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="10">
-        <v>1</v>
-      </c>
-      <c r="J23" s="13">
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
         <v>0.28</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>0.969</v>
       </c>
-      <c r="L23" s="14">
-        <v>1</v>
-      </c>
-      <c r="M23" s="15">
+      <c r="L23" s="13">
+        <v>1</v>
+      </c>
+      <c r="M23" s="14">
         <v>0.02</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N23" s="14">
         <v>0.01</v>
       </c>
-      <c r="O23" s="15">
+      <c r="O23" s="14">
         <v>0.97</v>
       </c>
-      <c r="P23" s="15">
+      <c r="P23" s="14">
         <v>0.16</v>
       </c>
-      <c r="Q23" s="15">
+      <c r="Q23" s="14">
         <v>0.25</v>
       </c>
-      <c r="R23" s="16">
+      <c r="R23" s="15">
         <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
-      <c r="A24" s="10">
+      <c r="A24" s="9">
         <v>24</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="12">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="D24" s="11">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
         <v>142</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>120</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I24" s="10">
-        <v>1</v>
-      </c>
-      <c r="J24" s="13">
+      <c r="I24" s="9">
+        <v>1</v>
+      </c>
+      <c r="J24" s="12">
         <v>0.1</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <v>0.741</v>
       </c>
-      <c r="L24" s="14">
-        <v>1</v>
-      </c>
-      <c r="M24" s="15">
+      <c r="L24" s="13">
+        <v>1</v>
+      </c>
+      <c r="M24" s="14">
         <v>0.01</v>
       </c>
-      <c r="N24" s="15">
+      <c r="N24" s="14">
         <v>0.3</v>
       </c>
-      <c r="O24" s="15">
+      <c r="O24" s="14">
         <v>0.74</v>
       </c>
-      <c r="P24" s="15">
+      <c r="P24" s="14">
         <v>0.05</v>
       </c>
-      <c r="Q24" s="15">
+      <c r="Q24" s="14">
         <v>0.21</v>
       </c>
-      <c r="R24" s="16">
+      <c r="R24" s="15">
         <v>2</v>
       </c>
     </row>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -646,7 +646,7 @@
     <col min="18" max="18" style="22" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="47.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="9">
         <v>15</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="9">
         <v>16</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="9">
         <v>17</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="9">
         <v>18</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="9">
         <v>19</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="9">
         <v>20</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="9">
         <v>24</v>
       </c>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>rank</t>
   </si>
@@ -70,13 +70,16 @@
     <t>ajuste_frentes_minimos</t>
   </si>
   <si>
+    <t>klñkñl</t>
+  </si>
+  <si>
+    <t>BOTELLA .5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.06 </t>
+  </si>
+  <si>
     <t>COCA-COLA</t>
-  </si>
-  <si>
-    <t>BOTELLA .5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.06 </t>
   </si>
   <si>
     <t>BOTELLA .6L</t>
@@ -763,10 +766,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -781,7 +784,7 @@
         <v>156</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="9">
         <v>3</v>
@@ -819,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -837,7 +840,7 @@
         <v>162</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="9">
         <v>3</v>
@@ -875,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -893,7 +896,7 @@
         <v>144</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -931,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -949,7 +952,7 @@
         <v>159</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -987,10 +990,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -1005,7 +1008,7 @@
         <v>148</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
@@ -1043,10 +1046,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -1061,7 +1064,7 @@
         <v>143</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
@@ -1099,10 +1102,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -1117,7 +1120,7 @@
         <v>160</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="9">
         <v>1</v>
@@ -1155,10 +1158,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -1173,7 +1176,7 @@
         <v>144</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="9">
         <v>1</v>
@@ -1211,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -1229,7 +1232,7 @@
         <v>140</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
@@ -1267,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -1301,10 +1304,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -1335,10 +1338,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -1353,7 +1356,7 @@
         <v>155</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
@@ -1391,10 +1394,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -1409,7 +1412,7 @@
         <v>161</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9">
         <v>1</v>
@@ -1447,10 +1450,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
@@ -1465,7 +1468,7 @@
         <v>157</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
@@ -1503,10 +1506,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
@@ -1521,7 +1524,7 @@
         <v>149</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
@@ -1559,10 +1562,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="11">
         <v>0</v>
@@ -1577,7 +1580,7 @@
         <v>155</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9">
         <v>1</v>
@@ -1615,10 +1618,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
@@ -1633,7 +1636,7 @@
         <v>146</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9">
         <v>2</v>
@@ -1671,10 +1674,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -1689,7 +1692,7 @@
         <v>152</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9">
         <v>1</v>
@@ -1727,10 +1730,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
@@ -1745,7 +1748,7 @@
         <v>133</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9">
         <v>1</v>
@@ -1783,10 +1786,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
@@ -1801,7 +1804,7 @@
         <v>153</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9">
         <v>1</v>
@@ -1839,10 +1842,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
@@ -1857,7 +1860,7 @@
         <v>157</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9">
         <v>1</v>
@@ -1895,10 +1898,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
@@ -1913,7 +1916,7 @@
         <v>120</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9">
         <v>1</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>rank</t>
   </si>
@@ -70,16 +70,13 @@
     <t>ajuste_frentes_minimos</t>
   </si>
   <si>
-    <t>klñkñl</t>
+    <t>COCA-COLA</t>
   </si>
   <si>
     <t>BOTELLA .5L</t>
   </si>
   <si>
     <t xml:space="preserve">  4.06 </t>
-  </si>
-  <si>
-    <t>COCA-COLA</t>
   </si>
   <si>
     <t>BOTELLA .6L</t>
@@ -766,10 +763,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -784,7 +781,7 @@
         <v>156</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="9">
         <v>3</v>
@@ -822,10 +819,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -840,7 +837,7 @@
         <v>162</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="9">
         <v>3</v>
@@ -878,10 +875,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -896,7 +893,7 @@
         <v>144</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -934,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -952,7 +949,7 @@
         <v>159</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -990,10 +987,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -1008,7 +1005,7 @@
         <v>148</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
@@ -1046,10 +1043,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -1064,7 +1061,7 @@
         <v>143</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
@@ -1102,10 +1099,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -1120,7 +1117,7 @@
         <v>160</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="9">
         <v>1</v>
@@ -1158,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -1176,7 +1173,7 @@
         <v>144</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="9">
         <v>1</v>
@@ -1214,10 +1211,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -1232,7 +1229,7 @@
         <v>140</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
@@ -1270,10 +1267,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -1304,10 +1301,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -1338,10 +1335,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -1356,7 +1353,7 @@
         <v>155</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
@@ -1394,10 +1391,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -1412,7 +1409,7 @@
         <v>161</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9">
         <v>1</v>
@@ -1450,10 +1447,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
@@ -1468,7 +1465,7 @@
         <v>157</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
@@ -1506,10 +1503,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
@@ -1524,7 +1521,7 @@
         <v>149</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
@@ -1562,10 +1559,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="11">
         <v>0</v>
@@ -1580,7 +1577,7 @@
         <v>155</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9">
         <v>1</v>
@@ -1618,10 +1615,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
@@ -1636,7 +1633,7 @@
         <v>146</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9">
         <v>2</v>
@@ -1674,10 +1671,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -1692,7 +1689,7 @@
         <v>152</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="9">
         <v>1</v>
@@ -1730,10 +1727,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
@@ -1748,7 +1745,7 @@
         <v>133</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="9">
         <v>1</v>
@@ -1786,10 +1783,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
@@ -1804,7 +1801,7 @@
         <v>153</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I22" s="9">
         <v>1</v>
@@ -1842,10 +1839,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
@@ -1860,7 +1857,7 @@
         <v>157</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I23" s="9">
         <v>1</v>
@@ -1898,10 +1895,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
@@ -1916,7 +1913,7 @@
         <v>120</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I24" s="9">
         <v>1</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>rank</t>
   </si>
@@ -70,13 +70,16 @@
     <t>ajuste_frentes_minimos</t>
   </si>
   <si>
+    <t>lllll</t>
+  </si>
+  <si>
+    <t>BOTELLA .5L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4.06 </t>
+  </si>
+  <si>
     <t>COCA-COLA</t>
-  </si>
-  <si>
-    <t>BOTELLA .5L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4.06 </t>
   </si>
   <si>
     <t>BOTELLA .6L</t>
@@ -763,10 +766,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -781,7 +784,7 @@
         <v>156</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="9">
         <v>3</v>
@@ -819,10 +822,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -837,7 +840,7 @@
         <v>162</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="9">
         <v>3</v>
@@ -875,10 +878,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -893,7 +896,7 @@
         <v>144</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="9">
         <v>2</v>
@@ -931,10 +934,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -949,7 +952,7 @@
         <v>159</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
@@ -987,10 +990,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -1005,7 +1008,7 @@
         <v>148</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="9">
         <v>1</v>
@@ -1043,10 +1046,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -1061,7 +1064,7 @@
         <v>143</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I8" s="9">
         <v>1</v>
@@ -1099,10 +1102,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -1117,7 +1120,7 @@
         <v>160</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="9">
         <v>1</v>
@@ -1155,10 +1158,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -1173,7 +1176,7 @@
         <v>144</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I10" s="9">
         <v>1</v>
@@ -1211,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -1229,7 +1232,7 @@
         <v>140</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I11" s="9">
         <v>1</v>
@@ -1267,10 +1270,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -1301,10 +1304,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -1335,10 +1338,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -1353,7 +1356,7 @@
         <v>155</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9">
         <v>1</v>
@@ -1391,10 +1394,10 @@
         <v>12</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" s="11">
         <v>0</v>
@@ -1409,7 +1412,7 @@
         <v>161</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9">
         <v>1</v>
@@ -1447,10 +1450,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
@@ -1465,7 +1468,7 @@
         <v>157</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9">
         <v>1</v>
@@ -1503,10 +1506,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D17" s="11">
         <v>0</v>
@@ -1521,7 +1524,7 @@
         <v>149</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9">
         <v>1</v>
@@ -1559,10 +1562,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" s="11">
         <v>0</v>
@@ -1577,7 +1580,7 @@
         <v>155</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9">
         <v>1</v>
@@ -1615,10 +1618,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D19" s="11">
         <v>0</v>
@@ -1633,7 +1636,7 @@
         <v>146</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I19" s="9">
         <v>2</v>
@@ -1671,10 +1674,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D20" s="11">
         <v>0</v>
@@ -1689,7 +1692,7 @@
         <v>152</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9">
         <v>1</v>
@@ -1727,10 +1730,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D21" s="11">
         <v>0</v>
@@ -1745,7 +1748,7 @@
         <v>133</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" s="9">
         <v>1</v>
@@ -1783,10 +1786,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" s="11">
         <v>0</v>
@@ -1801,7 +1804,7 @@
         <v>153</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I22" s="9">
         <v>1</v>
@@ -1839,10 +1842,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D23" s="11">
         <v>0</v>
@@ -1857,7 +1860,7 @@
         <v>157</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9">
         <v>1</v>
@@ -1895,10 +1898,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D24" s="11">
         <v>0</v>
@@ -1913,7 +1916,7 @@
         <v>120</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I24" s="9">
         <v>1</v>

--- a/Database.xlsx
+++ b/Database.xlsx
@@ -70,7 +70,7 @@
     <t>ajuste_frentes_minimos</t>
   </si>
   <si>
-    <t>lllll</t>
+    <t>asd</t>
   </si>
   <si>
     <t>BOTELLA .5L</t>
@@ -716,7 +716,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="9">
         <v>4</v>
@@ -772,7 +772,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="9">
         <v>1.5</v>
@@ -828,7 +828,7 @@
         <v>24</v>
       </c>
       <c r="D4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
@@ -884,7 +884,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9">
         <v>1.5</v>
@@ -940,7 +940,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="9">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="D7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="9">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>33</v>
       </c>
       <c r="D8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="9">
         <v>2</v>
@@ -1108,7 +1108,7 @@
         <v>35</v>
       </c>
       <c r="D9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="9">
         <v>1.5</v>
@@ -1164,7 +1164,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="9">
         <v>2</v>
@@ -1220,7 +1220,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="9">
         <v>1.5</v>
@@ -1276,7 +1276,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -1310,7 +1310,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
@@ -1344,7 +1344,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="9">
         <v>1</v>
@@ -1400,7 +1400,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="9">
         <v>1</v>
@@ -1456,7 +1456,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="9">
         <v>1</v>
@@ -1512,7 +1512,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="9">
         <v>1</v>
@@ -1568,7 +1568,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="9">
         <v>1</v>
@@ -1624,7 +1624,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="9">
         <v>1</v>
@@ -1680,7 +1680,7 @@
         <v>22</v>
       </c>
       <c r="D20" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -1736,7 +1736,7 @@
         <v>22</v>
       </c>
       <c r="D21" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="9">
         <v>1.5</v>
@@ -1792,7 +1792,7 @@
         <v>22</v>
       </c>
       <c r="D22" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="9">
         <v>1</v>
@@ -1848,7 +1848,7 @@
         <v>24</v>
       </c>
       <c r="D23" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="9">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>24</v>
       </c>
       <c r="D24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="9">
         <v>1</v>
